--- a/Data/ConfigRobot.xlsx
+++ b/Data/ConfigRobot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlobalRed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97310AE-9912-4829-831F-D4DC2E03D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABCF7F-A6B8-4A25-AF12-4D99C63BF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="735" windowWidth="10620" windowHeight="8205" xr2:uid="{51B19F89-5E1E-49E6-9423-63446130A92B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51B19F89-5E1E-49E6-9423-63446130A92B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensagem </t>
+  </si>
+  <si>
+    <t>Mensagem para o joão</t>
+  </si>
+  <si>
+    <t>Mensagem para o Uigakah123</t>
+  </si>
+  <si>
+    <t>Mensagem para o numero 9813</t>
+  </si>
+  <si>
+    <t>Mensagme para o Chico</t>
+  </si>
+  <si>
+    <t>Mensagem pro hans</t>
+  </si>
+  <si>
+    <t>Mensagem pro fontinelles</t>
+  </si>
+  <si>
+    <t>Mensagem pro Vitão</t>
+  </si>
+  <si>
+    <t>Mensagem para comprovantes</t>
   </si>
 </sst>
 </file>
@@ -460,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947A437F-465B-497D-B2A1-A933E1878AC4}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +501,7 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -484,8 +511,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -495,8 +525,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,8 +539,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>981326732</v>
       </c>
@@ -517,8 +553,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,8 +567,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -539,8 +581,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,8 +595,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -561,8 +609,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -572,26 +623,29 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data/ConfigRobot.xlsx
+++ b/Data/ConfigRobot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlobalRed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GlobalRed\Documents\UiPath\RoboticEnterpriseFramework1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABCF7F-A6B8-4A25-AF12-4D99C63BF25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96EA138-58F0-42FF-B3E1-5CFD5127D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51B19F89-5E1E-49E6-9423-63446130A92B}"/>
   </bookViews>
@@ -69,6 +69,48 @@
     <t>Pedro</t>
   </si>
   <si>
+    <t>Investidor</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Comprovantes</t>
+  </si>
+  <si>
+    <t>Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensagem </t>
+  </si>
+  <si>
+    <t>Mensagem para o joão</t>
+  </si>
+  <si>
+    <t>Mensagem para o Uigakah123</t>
+  </si>
+  <si>
+    <t>Mensagem para o numero 9813</t>
+  </si>
+  <si>
+    <t>Mensagme para o Chico</t>
+  </si>
+  <si>
+    <t>Mensagem pro hans</t>
+  </si>
+  <si>
+    <t>Mensagem pro fontinelles</t>
+  </si>
+  <si>
+    <t>Mensagem pro Vitão</t>
+  </si>
+  <si>
+    <t>Mensagem para comprovantes</t>
+  </si>
+  <si>
+    <t>Vitao GR</t>
+  </si>
+  <si>
     <r>
       <t>CONTATO</t>
     </r>
@@ -81,50 +123,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Certifique-se que está correto pois será usado na pesquisa)</t>
+      <t>(Certifique-se que está correto pois será usado na pesquisa,CUIDADO COM CAPS LOCK)</t>
     </r>
-  </si>
-  <si>
-    <t>Investidor</t>
-  </si>
-  <si>
-    <t>Vitão GR</t>
-  </si>
-  <si>
-    <t>França</t>
-  </si>
-  <si>
-    <t>Comprovantes</t>
-  </si>
-  <si>
-    <t>Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensagem </t>
-  </si>
-  <si>
-    <t>Mensagem para o joão</t>
-  </si>
-  <si>
-    <t>Mensagem para o Uigakah123</t>
-  </si>
-  <si>
-    <t>Mensagem para o numero 9813</t>
-  </si>
-  <si>
-    <t>Mensagme para o Chico</t>
-  </si>
-  <si>
-    <t>Mensagem pro hans</t>
-  </si>
-  <si>
-    <t>Mensagem pro fontinelles</t>
-  </si>
-  <si>
-    <t>Mensagem pro Vitão</t>
-  </si>
-  <si>
-    <t>Mensagem para comprovantes</t>
   </si>
 </sst>
 </file>
@@ -490,12 +490,12 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -503,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,38 +593,38 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
